--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Nodetype</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>PHLU.Corporate:Content</t>
+  </si>
+  <si>
+    <t>docs hinzufügen!!</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -724,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -805,6 +808,11 @@
       </c>
       <c r="I16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Nodetype</t>
   </si>
@@ -59,9 +59,6 @@
     <t>TYPO3.Neos:ContentCollection</t>
   </si>
   <si>
-    <t>Childnodes</t>
-  </si>
-  <si>
     <t>Constraints</t>
   </si>
   <si>
@@ -131,7 +128,34 @@
     <t>PHLU.Corporate:Content</t>
   </si>
   <si>
-    <t>docs hinzufügen!!</t>
+    <t>docs.phlu.ch hinzufügen!!</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Overview</t>
+  </si>
+  <si>
+    <t>Childnodes (autocreated collections)</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:Overview.Onepage</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:Overview.Tiles</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:View.Detail</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:View.Dossier</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:Overview.Onepage, PHLU.Corporate:Page:View.Detail</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:View.Detail, PHLU.Corporate:Page:View.Dossier</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.Service</t>
   </si>
 </sst>
 </file>
@@ -455,20 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="59.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="67.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -498,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -506,7 +530,7 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -515,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -526,7 +550,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -535,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -546,16 +570,16 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -566,7 +590,7 @@
         <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -575,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -586,19 +610,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -609,19 +633,19 @@
         <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -632,19 +656,19 @@
         <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -655,19 +679,19 @@
         <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -675,19 +699,19 @@
         <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -695,16 +719,16 @@
         <v>400</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -715,16 +739,19 @@
         <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -735,16 +762,16 @@
         <v>402</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -755,16 +782,16 @@
         <v>403</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -775,16 +802,16 @@
         <v>404</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -795,24 +822,133 @@
         <v>405</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>406</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>409</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>Nodetype</t>
   </si>
@@ -113,12 +114,6 @@
     <t>PHLU.Neos.NodeTypes</t>
   </si>
   <si>
-    <t>PHLU.Corporate::Event</t>
-  </si>
-  <si>
-    <t>PHLU.Corporate::Events</t>
-  </si>
-  <si>
     <t>PHLU.Neos.NodeTypes:TeaserMixin, PHLU.Neos.NodeTypes:Content</t>
   </si>
   <si>
@@ -128,27 +123,15 @@
     <t>PHLU.Corporate:Content</t>
   </si>
   <si>
-    <t>docs.phlu.ch hinzufügen!!</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Overview</t>
   </si>
   <si>
     <t>Childnodes (autocreated collections)</t>
   </si>
   <si>
-    <t>PHLU.Corporate:Page:Overview.Onepage</t>
-  </si>
-  <si>
-    <t>PHLU.Corporate:Page:Overview.Tiles</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Page:View.Detail</t>
   </si>
   <si>
-    <t>PHLU.Corporate:Page:View.Dossier</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Page:Overview.Onepage, PHLU.Corporate:Page:View.Detail</t>
   </si>
   <si>
@@ -156,13 +139,58 @@
   </si>
   <si>
     <t>PHLU.Corporate:Page.Service</t>
+  </si>
+  <si>
+    <t>PHLU.Docs:Page</t>
+  </si>
+  <si>
+    <t>PHLU.Docs:Page.Home</t>
+  </si>
+  <si>
+    <t>PHLU.Docs::Event</t>
+  </si>
+  <si>
+    <t>PHLU.Docs::Events</t>
+  </si>
+  <si>
+    <t>PHLU.Docs:ContentCollection</t>
+  </si>
+  <si>
+    <t>PHLU.Docs:Content</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.NotInMenu</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Event</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Events</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.Overview.Tiles</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.Overview.Onepage</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.View.Detail</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.View.Dossier</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.Mixin.Preview</t>
+  </si>
+  <si>
+    <t>preview:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +202,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,14 +247,87 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,17 +603,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="59.83203125" customWidth="1"/>
     <col min="5" max="5" width="34.1640625" customWidth="1"/>
     <col min="6" max="6" width="67.83203125" customWidth="1"/>
@@ -510,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -585,41 +709,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -630,16 +731,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -653,19 +754,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -676,36 +777,39 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -716,39 +820,36 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -759,13 +860,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -779,13 +880,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -799,13 +903,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -819,16 +923,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -839,16 +943,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -862,19 +963,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -885,14 +983,17 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -905,16 +1006,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -928,10 +1029,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -943,16 +1044,226 @@
         <v>13</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>409</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
         <v>34</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>410</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>600</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>601</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>602</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>603</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>604</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>605</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Nodetype</t>
   </si>
@@ -108,9 +108,6 @@
     <t>PHLU.Neos.Corporate:Page</t>
   </si>
   <si>
-    <t>main: PHLU.Neos.NodeTypes:EventsCollection</t>
-  </si>
-  <si>
     <t>PHLU.Neos.NodeTypes</t>
   </si>
   <si>
@@ -129,36 +126,12 @@
     <t>Childnodes (autocreated collections)</t>
   </si>
   <si>
-    <t>PHLU.Corporate:Page:View.Detail</t>
-  </si>
-  <si>
-    <t>PHLU.Corporate:Page:Overview.Onepage, PHLU.Corporate:Page:View.Detail</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Page:View.Detail, PHLU.Corporate:Page:View.Dossier</t>
   </si>
   <si>
     <t>PHLU.Corporate:Page.Service</t>
   </si>
   <si>
-    <t>PHLU.Docs:Page</t>
-  </si>
-  <si>
-    <t>PHLU.Docs:Page.Home</t>
-  </si>
-  <si>
-    <t>PHLU.Docs::Event</t>
-  </si>
-  <si>
-    <t>PHLU.Docs::Events</t>
-  </si>
-  <si>
-    <t>PHLU.Docs:ContentCollection</t>
-  </si>
-  <si>
-    <t>PHLU.Docs:Content</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Page.NotInMenu</t>
   </si>
   <si>
@@ -174,16 +147,52 @@
     <t>PHLU.Corporate:Page.Overview.Onepage</t>
   </si>
   <si>
-    <t>PHLU.Corporate:Page.View.Detail</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Page.View.Dossier</t>
   </si>
   <si>
     <t>PHLU.Corporate:Page.Mixin.Preview</t>
   </si>
   <si>
-    <t>preview:</t>
+    <t>preview:PHLU.Corporate:ContentCollection.Preview</t>
+  </si>
+  <si>
+    <t>main: PHLU.Neos.NodeTypes:ContentCollection.Events</t>
+  </si>
+  <si>
+    <t>lead!!</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.View.Default</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:View.Default</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page:Overview.Onepage, PHLU.Corporate:Page:View.Default</t>
+  </si>
+  <si>
+    <t>linkliste!!</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:TextWithImage</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Nodetyp</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspector: Presets: Ratio 3x4 &amp; 16x9 </t>
+  </si>
+  <si>
+    <t>Image*</t>
   </si>
 </sst>
 </file>
@@ -603,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +624,7 @@
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="59.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="5" max="5" width="46.5" customWidth="1"/>
     <col min="6" max="6" width="67.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
@@ -634,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -663,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -683,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -703,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -723,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -740,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -763,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>27</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -792,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -809,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -829,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -863,7 +872,7 @@
         <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -889,7 +898,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -906,7 +915,7 @@
         <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -926,7 +935,7 @@
         <v>403</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -946,7 +955,7 @@
         <v>404</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -966,7 +975,7 @@
         <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -986,13 +995,13 @@
         <v>406</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1009,13 +1018,13 @@
         <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1032,7 +1041,7 @@
         <v>408</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -1052,13 +1061,13 @@
         <v>409</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,10 +1084,10 @@
         <v>410</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1092,13 +1101,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>500</v>
+        <v>411</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1110,145 +1119,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>600</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>601</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>602</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>603</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>604</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>605</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>412</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>413</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>414</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,12 +1215,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paafelder/webprojects/PHLU.neos-base-distribution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pamegli/dev/neos.phlu.dev/PHLU.neos-base-distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="2260" windowWidth="38400" windowHeight="24000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
   <si>
     <t>Nodetype</t>
   </si>
@@ -177,9 +177,6 @@
     <t>PHLU.Corporate:TextWithImage</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
     <t>Nodetyp</t>
   </si>
   <si>
@@ -193,13 +190,85 @@
   </si>
   <si>
     <t>Image*</t>
+  </si>
+  <si>
+    <t>TYPO3.Neos.NodeTypes:TextWithImage</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Text</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Headline</t>
+  </si>
+  <si>
+    <t>TYPO3.Neos.NodeTypes:Headline</t>
+  </si>
+  <si>
+    <t>TYPO3.Neos.NodeTypes:Text</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:AccordeonElement</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Accordeon</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.TargetGroupElement</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.TargetGroup</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Page.TargetGroup</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.CarouselNews</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.Carousel</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Page.Carousel</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Page.CarouselNews</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.TeaserDefault</t>
+  </si>
+  <si>
+    <t>teaserText</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Page.HeaderDefault</t>
+  </si>
+  <si>
+    <t>headerText, headerTitle</t>
+  </si>
+  <si>
+    <t>reference, usepageheader</t>
+  </si>
+  <si>
+    <t>usepageheader</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Wenn ausgegewählt, dann wird der Leadtext der verlinkten Seite verwenden. Dieser kann nicht direkt bearbeitet werden.</t>
+  </si>
+  <si>
+    <t>header: PHLU.Corporate:Content.Page.HeaderDefault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +307,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,10 +370,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -612,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1126,6 +1202,12 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1134,6 +1216,12 @@
       <c r="B26" t="s">
         <v>48</v>
       </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1143,69 +1231,200 @@
         <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>415</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2">
+        <v>416</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="2">
+        <v>417</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="2">
+        <v>418</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="2">
+        <v>419</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>420</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>421</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>422</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>423</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1215,28 +1434,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,10 +1463,21 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/NeosNodesDefinitions.xlsx
+++ b/NeosNodesDefinitions.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$I$4</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>Nodetype</t>
   </si>
@@ -225,18 +228,9 @@
     <t>main: PHLU.Corporate:ContentCollection.Page.TargetGroup</t>
   </si>
   <si>
-    <t>PHLU.Corporate:Content.Page.CarouselNews</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Content.Page.Carousel</t>
   </si>
   <si>
-    <t>main: PHLU.Corporate:ContentCollection.Page.Carousel</t>
-  </si>
-  <si>
-    <t>main: PHLU.Corporate:ContentCollection.Page.CarouselNews</t>
-  </si>
-  <si>
     <t>PHLU.Corporate:Content.Page.TeaserDefault</t>
   </si>
   <si>
@@ -262,13 +256,67 @@
   </si>
   <si>
     <t>header: PHLU.Corporate:Content.Page.HeaderDefault</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Overview.OnePage</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Page.Overview.OnePage</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.CarouselNews</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.CarouselNews</t>
+  </si>
+  <si>
+    <t>main: PHLU.Corporate:ContentCollection.Carousel</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Content.Carousel</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.CarouselNews</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Carousel</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.View.Dossier</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.View.Detail</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Accordeon</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.TargetGroup</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Home</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Overview.Tiles</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Service</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Default</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:ContentCollection.Page.Default.Default</t>
+  </si>
+  <si>
+    <t>PHLU.Corporate:Page.View.Default.Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,12 +355,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFCC7832"/>
-      <name val="Menlo"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,11 +412,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -415,7 +456,25 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -423,6 +482,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:I48" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I48"/>
+  <sortState ref="A2:I48">
+    <sortCondition ref="B2:B48"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Nodetype"/>
+    <tableColumn id="3" name="Properties"/>
+    <tableColumn id="4" name="Supertypes"/>
+    <tableColumn id="5" name="Childnodes (autocreated collections)"/>
+    <tableColumn id="6" name="Constraints"/>
+    <tableColumn id="7" name="Abstract"/>
+    <tableColumn id="8" name="Package"/>
+    <tableColumn id="9" name="Implementiert"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,21 +768,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="59.83203125" customWidth="1"/>
-    <col min="5" max="5" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="76" customWidth="1"/>
     <col min="6" max="6" width="67.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -736,19 +817,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -756,185 +831,187 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>101</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>102</v>
+      <c r="A4" s="2">
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>200</v>
+      <c r="A6" s="2">
+        <v>421</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>300</v>
+      <c r="A7" s="2">
+        <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>301</v>
+      <c r="A8" s="2">
+        <v>423</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>419</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>302</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>303</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>304</v>
+      <c r="A11" s="2">
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -944,263 +1021,110 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>410</v>
-      </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>401</v>
-      </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>402</v>
-      </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>403</v>
-      </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>404</v>
-      </c>
       <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>405</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>406</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>407</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>408</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>409</v>
-      </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>410</v>
-      </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>411</v>
-      </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1211,10 +1135,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1225,18 +1155,14 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>414</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
@@ -1247,188 +1173,447 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>410</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>410</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>406</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>411</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>408</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>415</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="D38" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>416</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>417</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>414</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>418</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>419</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>420</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>421</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>422</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>423</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>302</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>303</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>304</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>200</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I44">
+    <sortCondition ref="B2:B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1463,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1474,10 +1659,10 @@
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
